--- a/PLScombined/PLScombined_predicted_factors_matrix_6.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-1.109114991746839</v>
       </c>
+      <c r="F2" t="n">
+        <v>-1.122692565253992</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.141038070945767</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.163335261014131</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.188751133631171</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.216512484810235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.245939660201161</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.276456219365039</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.307585765091228</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.338942569905026</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.370219803882115</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.401177457381928</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.431631033707505</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.461441493269062</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.490506596091273</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.518753610219989</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.546133265958383</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.572614800986609</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.598181935610909</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.622829626711925</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.646561465058802</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.669387599044786</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.691323085965946</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.712386588517374</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.732599348762454</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.751984384244777</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.770565861365258</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.788368609803797</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.805417748825572</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.821738402124076</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.838962260080609</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.855470491190865</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.871285045736192</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.886428359102209</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.902471601889093</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.917852308639175</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.932590860153319</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1.946707996464649</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1.960224475293312</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1.973160819906032</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-1.985537155530999</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-1.998888890175887</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.011681849070313</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.3450984284891095</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.373773768785695</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.3826315617834682</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.3778718480215056</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.3641001665630278</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.3447071252085396</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.3221604425715838</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.2982292248976537</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.2741560441606699</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.2507888652930877</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.2286820771830401</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.208173724278773</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.1894443878434091</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.1725619108095414</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.1575152030824239</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1442396313170199</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1326359337747614</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1225841658665344</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.1139538449436012</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.1066112009768692</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.1004242358255705</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.09526613480838553</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.09101745017071171</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.0875673793620011</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.08481438547346717</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.08266634852605619</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.0810403905406144</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.07986248195715699</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.07906690953042461</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.07859566474740225</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.07883244138947657</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07926423561896459</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.07985671030616004</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.08058002119257346</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.08182795968830101</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.08313500050647968</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.08448334929421966</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.08585799893531099</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.0872463064952006</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.08863767673928756</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.0900232886264206</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.09183399774398285</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.09360478361881504</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.4471916342550223</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.319284743338205</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2214022566297716</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1472644567081814</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.09174508080538929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05070966985940191</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.02085482128942889</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0004383110354225393</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.0152316956866562</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.02513861171365005</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.03141357803260007</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.03502608500782137</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.03672043056803768</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.03706389809147233</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.03648530362380031</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.03530567621250036</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.03376256603426307</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.03202922446461325</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.0302296788409832</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.02845053481742814</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.02675017999796549</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.02516593072710716</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.02371955609250903</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.02242152554012073</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.02127425569861471</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.02027457512731428</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.01941558003689349</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.01868801765570189</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.01808130482556863</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.01758426636687346</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.01732223188919046</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.01712322811034977</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.01698570033337005</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.01690419367096328</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.01698637946907047</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.01709754944083793</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.01723886182496897</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.01740707498343548</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.01759838150359972</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.01780897419484853</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.01803522930612959</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.01838238018012779</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.01872954546802983</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.2486915040232688</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1850857059144641</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1331964674032628</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09188125251198184</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05968200336464806</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.03509843829837354</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01672923515112191</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003335463439247806</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.00614002409641803</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.01257691325757877</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.01669341846543972</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.01906697197279163</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.02015572778653586</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.02031884716161388</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.01983462287779168</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.01891612341072815</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.01772437934073984</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.01637930646789801</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.01496863377377254</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.01355512220527547</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.01218234845210371</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.01087930168091165</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.009664009611442082</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.008546378170317975</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.007530398964306351</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.006615852006275504</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.005799607921210693</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.005076614266734105</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.00444063412617152</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.003884791645509109</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.003488122067395375</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.003136148125152753</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.0028275735856313</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.002560993883059046</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.002400853337070387</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.002265183271709843</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.00215296403686791</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.002063882437222484</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.001996704409242315</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.001949588741544979</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.001920408635686536</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.001967795131877297</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.00202310003303489</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.08918466160112488</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.07215845353706922</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.05579116428123888</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.04129644252236827</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.02908171285777802</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.0191308467694383</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.0112262349456842</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.005073489282504672</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.0003682002082137674</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.003171108389776111</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.005789212103686056</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.007690873197916657</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.009042851599079187</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.009978297667645346</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.01060189893112621</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0109949300606404</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.01121980491529315</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.01132398169033824</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.01134320682960609</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01130414955244841</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.01122650614112192</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01112465930731657</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01100897332254243</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01088679631106751</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.01076323023762548</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01064171852557132</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0105244917523659</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01041290365771472</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01030768288118872</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01020912032903389</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01023045297974158</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01022455217512808</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01020101733843761</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01016674373311394</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01023464603099868</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.0102686811890553</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01027924271295417</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01027411221518548</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01025863463941725</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.0102364419402817</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.010209996843446</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01028540642009425</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01033088653841492</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -550,6 +1306,132 @@
       </c>
       <c r="E7" t="n">
         <v>-0.3246947020956162</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2345278207192295</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.1693035044871465</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.1219287227469539</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.0874294278461711</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.06228225592962235</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.04396756715252866</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.03066752992779349</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.02106010112415059</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.01417698467872558</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.009304678127411358</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.005914820495915111</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.003614664707996515</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.002111511976166304</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.001186931895541781</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.0006779114553963827</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.0004629596924101475</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.0004517914611801988</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.000577620249149947</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.0007913696014904268</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.001057306623520541</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.001349737214558118</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.001650498894447891</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.001947056068289531</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.002231052354760274</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.002497210876950067</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.002742500196819722</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.002965503379953909</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.003165942555127044</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.003344322506869358</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.003536465242297921</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.003693443777993081</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.003822853440748365</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.003929929983500342</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.004058753540927456</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.004155014122066849</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.004227068888292012</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.004280576085747493</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.004319586717511171</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.004347079233222435</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.004365296219531144</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.004418160227384415</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.00444668374419564</v>
       </c>
     </row>
   </sheetData>
